--- a/Klinisk/Mammary tumor patients.xlsx
+++ b/Klinisk/Mammary tumor patients.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jqc305/Documents/PhD/Klinisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D201B5-ECAB-8C4D-B229-90904259184C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B45ABA-9DAB-D749-9F89-3216DD9D4579}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2540" yWindow="-21000" windowWidth="33600" windowHeight="21000" xr2:uid="{05FC4E04-0877-594A-B04F-0D4C4ACDAED3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{05FC4E04-0877-594A-B04F-0D4C4ACDAED3}"/>
   </bookViews>
   <sheets>
-    <sheet name="For Kerstin" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="For Kerstin" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -81,9 +86,6 @@
     <t>Golden Retriever</t>
   </si>
   <si>
-    <t>10 y</t>
-  </si>
-  <si>
     <t>Dead</t>
   </si>
   <si>
@@ -114,9 +116,6 @@
     <t>Border Collie</t>
   </si>
   <si>
-    <t>12 y</t>
-  </si>
-  <si>
     <t>Alive</t>
   </si>
   <si>
@@ -153,9 +152,6 @@
     <t>Chili</t>
   </si>
   <si>
-    <t>11 y</t>
-  </si>
-  <si>
     <t>Mixed mammary tumor/Complex adenoma</t>
   </si>
   <si>
@@ -166,9 +162,6 @@
   </si>
   <si>
     <t>Kleiner Münsterländer</t>
-  </si>
-  <si>
-    <t>8 y</t>
   </si>
   <si>
     <t>Complex adenoma</t>
@@ -203,18 +196,12 @@
     <t>Boxer</t>
   </si>
   <si>
-    <t>6 y</t>
-  </si>
-  <si>
     <t>Tullamore</t>
   </si>
   <si>
     <t>Cocker spaniel/Poodle mix</t>
   </si>
   <si>
-    <t>9 y</t>
-  </si>
-  <si>
     <t>Complex adenocarcinoma/solid adenocarcinoma/benign mixed</t>
   </si>
   <si>
@@ -254,9 +241,6 @@
     <t>Danish/swedish farmdog</t>
   </si>
   <si>
-    <t>13 y</t>
-  </si>
-  <si>
     <t>Japanese Spitz</t>
   </si>
   <si>
@@ -360,6 +344,24 @@
   </si>
   <si>
     <t>High grade mammary carcinoma</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Diagnosis</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>Count of Age</t>
+  </si>
+  <si>
+    <t>Mix</t>
   </si>
 </sst>
 </file>
@@ -656,11 +658,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -678,9 +679,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -689,9 +687,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -709,9 +704,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -724,9 +716,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -738,9 +727,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -781,15 +767,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,7 +810,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -816,6 +822,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -934,17 +941,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1078,6 +1084,604 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sophie Emilie Søborg Agger" refreshedDate="44024.48955046296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="19" xr:uid="{EF434827-7EC9-C342-B326-484D828CD2AB}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="18">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Excluded" numFmtId="0">
+      <sharedItems count="4">
+        <s v="No"/>
+        <s v="Yes - osa"/>
+        <s v="Yes - sample quality"/>
+        <s v="Yes - benign"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sex" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Breed" numFmtId="0">
+      <sharedItems count="14">
+        <s v="Golden Retriever"/>
+        <s v="Large mix"/>
+        <s v="Border Collie"/>
+        <s v="WHWT"/>
+        <s v="Labrador mix"/>
+        <s v="Cocker spaniel"/>
+        <s v="Labrador"/>
+        <s v="?"/>
+        <s v="Kleiner Münsterländer"/>
+        <s v="Boxer"/>
+        <s v="Danish/swedish farmdog"/>
+        <s v="Cocker spaniel/Poodle mix"/>
+        <s v="Jack Russel"/>
+        <s v="Japanese Spitz"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Diagnosis" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Grade" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+    </cacheField>
+    <cacheField name="cfDNA" numFmtId="0">
+      <sharedItems count="2">
+        <s v="No"/>
+        <s v="Yes"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tumor sample date" numFmtId="0">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2019-06-25T00:00:00" maxDate="2029-07-30T00:00:00"/>
+    </cacheField>
+    <cacheField name="Control 2m" numFmtId="0">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-04-14T00:00:00" maxDate="2020-05-06T00:00:00"/>
+    </cacheField>
+    <cacheField name="Control 4m" numFmtId="0">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-06-16T00:00:00" maxDate="2020-07-08T00:00:00"/>
+    </cacheField>
+    <cacheField name="Control 6m" numFmtId="0">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-06-09T00:00:00" maxDate="2020-06-10T00:00:00"/>
+    </cacheField>
+    <cacheField name="Control 8m" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Control 10m" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Control 12m" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Control 18m" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Notes" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <s v="Alice"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <s v="10 y"/>
+    <s v="Dead"/>
+    <s v="Papillary carcinoma"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2019-10-01T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Alma"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <s v="10 y"/>
+    <s v="Dead"/>
+    <s v="Solid carcinoma"/>
+    <n v="3"/>
+    <x v="0"/>
+    <d v="2019-11-08T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="Also lymphoma"/>
+  </r>
+  <r>
+    <s v="Maddie"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <s v="12 y"/>
+    <s v="Alive"/>
+    <s v="Complex carcinoma"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2019-09-09T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Wanda"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <s v="12 y"/>
+    <s v="Alive"/>
+    <s v="Simple carcinoma"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2019-09-11T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="Also (primary) lung nodule"/>
+  </r>
+  <r>
+    <s v="Bella"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="4"/>
+    <s v="9 y"/>
+    <s v="Alive"/>
+    <s v="High grade mammary carcinoma"/>
+    <n v="3"/>
+    <x v="0"/>
+    <d v="2020-05-11T00:00:00"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="Grade set as high"/>
+  </r>
+  <r>
+    <s v="Maxi"/>
+    <x v="1"/>
+    <s v="Female"/>
+    <x v="5"/>
+    <s v="12 y"/>
+    <s v="Dead"/>
+    <s v="Sarcoma/osteosarcoma"/>
+    <m/>
+    <x v="0"/>
+    <d v="2019-06-25T00:00:00"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Osteosarcoma - excluded"/>
+  </r>
+  <r>
+    <s v="Mille"/>
+    <x v="2"/>
+    <s v="Female"/>
+    <x v="5"/>
+    <s v="12 y"/>
+    <s v="Dead"/>
+    <s v="None"/>
+    <m/>
+    <x v="0"/>
+    <d v="2019-11-01T00:00:00"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Sample too degraded - excluded"/>
+  </r>
+  <r>
+    <s v="Hope"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="6"/>
+    <s v="10 y"/>
+    <s v="Alive"/>
+    <s v="Complex adenocarcinomas"/>
+    <n v="1"/>
+    <x v="1"/>
+    <d v="2020-02-26T00:00:00"/>
+    <d v="2020-04-29T00:00:00"/>
+    <d v="2020-07-07T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SLU 1"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="7"/>
+    <s v="?"/>
+    <s v="Alive"/>
+    <s v="SCC"/>
+    <m/>
+    <x v="1"/>
+    <d v="2020-05-28T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Molly - JB"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="6"/>
+    <s v="10 y"/>
+    <s v="Alive"/>
+    <s v="Complex carcinoma _x000a_Simple carcinoma"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="04/10/2020_x000a_07/02/2020"/>
+    <d v="2020-04-14T00:00:00"/>
+    <d v="2020-06-16T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Silja"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="8"/>
+    <s v="12 y"/>
+    <s v="Alive"/>
+    <s v="Solid adenocarcinoma"/>
+    <n v="3"/>
+    <x v="1"/>
+    <d v="2020-02-17T00:00:00"/>
+    <d v="2020-04-17T00:00:00"/>
+    <d v="2020-06-26T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Topper"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="9"/>
+    <s v="6 y"/>
+    <s v="Alive"/>
+    <s v="Simple carcinoma"/>
+    <n v="3"/>
+    <x v="1"/>
+    <d v="2020-02-19T00:00:00"/>
+    <d v="2020-05-05T00:00:00"/>
+    <d v="2020-06-29T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Molly - BD"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="5"/>
+    <s v="6 y"/>
+    <s v="Alive"/>
+    <s v="Complex carcinoma"/>
+    <n v="1"/>
+    <x v="1"/>
+    <d v="2020-06-29T00:00:00"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Tulle"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="10"/>
+    <s v="13 y"/>
+    <s v="Alive"/>
+    <s v="Carcinoma Grade 3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <d v="2020-06-15T00:00:00"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="No"/>
+    <s v="Infected mmt"/>
+  </r>
+  <r>
+    <s v="Tullamore"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="11"/>
+    <s v="9 y"/>
+    <s v="Alive"/>
+    <s v="Complex adenocarcinoma/solid adenocarcinoma/benign mixed"/>
+    <n v="1"/>
+    <x v="1"/>
+    <d v="2019-11-20T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <d v="2020-06-09T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Olivia"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="12"/>
+    <s v="13 y"/>
+    <s v="Dead"/>
+    <s v="Carcinosarcoma"/>
+    <m/>
+    <x v="1"/>
+    <d v="2020-06-09T00:00:00"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Also metastatic mct"/>
+  </r>
+  <r>
+    <s v="Chili"/>
+    <x v="3"/>
+    <s v="Female"/>
+    <x v="5"/>
+    <s v="11 y"/>
+    <s v="Alive"/>
+    <s v="Mixed mammary tumor/Complex adenoma"/>
+    <m/>
+    <x v="1"/>
+    <d v="2020-01-06T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Ellie"/>
+    <x v="3"/>
+    <s v="Female"/>
+    <x v="8"/>
+    <s v="8 y"/>
+    <s v="Alive"/>
+    <s v="Complex adenoma"/>
+    <m/>
+    <x v="1"/>
+    <d v="2020-02-07T00:00:00"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Trille"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <x v="13"/>
+    <m/>
+    <s v="Alive"/>
+    <s v="?"/>
+    <m/>
+    <x v="1"/>
+    <d v="2029-07-29T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A00FBA8B-A53D-E048-9448-BA9B8E2F1B11}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="7"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="8" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Diagnosis" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Age" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1F277A0-3373-C048-924F-4F2CCB7F4C12}" name="Table1" displayName="Table1" ref="A1:R20" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A1:R20" xr:uid="{DDE13780-E7CD-FB43-96D6-111C364A8681}">
@@ -1106,12 +1710,12 @@
     <tableColumn id="1" xr3:uid="{A75B1E21-FAD4-914B-813F-0ED0B81F146A}" name="Name" dataDxfId="17"/>
     <tableColumn id="17" xr3:uid="{C0924D36-3D9E-DC45-BE8D-E495FBBBDF7A}" name="Excluded" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{D3D4ECAC-2057-A341-AFA5-B7AF3CA5A4D7}" name="Sex" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{EE891BAE-7BF8-0045-AA88-D5945CCCCB32}" name="Breed" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A77266D9-1707-E541-BC6A-ABC62585C7A4}" name="Age" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{6C7329F9-428E-1349-85DF-CB8CB669EBD2}" name="Status" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{574B9625-6283-2B47-AF5C-1877C4E7A1C2}" name="Diagnosis" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{82D870F1-3125-5A4B-A144-91085725EEB0}" name="Grade" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{CCE63969-D1DE-FB4A-A19D-70A4E481191B}" name="cfDNA" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{EE891BAE-7BF8-0045-AA88-D5945CCCCB32}" name="Breed" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A77266D9-1707-E541-BC6A-ABC62585C7A4}" name="Age" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{6C7329F9-428E-1349-85DF-CB8CB669EBD2}" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{574B9625-6283-2B47-AF5C-1877C4E7A1C2}" name="Diagnosis" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{82D870F1-3125-5A4B-A144-91085725EEB0}" name="Grade" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{CCE63969-D1DE-FB4A-A19D-70A4E481191B}" name="cfDNA" dataDxfId="12"/>
     <tableColumn id="8" xr3:uid="{5494D4E2-6AEB-D047-874B-EC72442262E7}" name="Tumor sample date" dataDxfId="11"/>
     <tableColumn id="9" xr3:uid="{1CA53572-9980-9C4F-B01D-0FA879615C76}" name="Control 2m" dataDxfId="10"/>
     <tableColumn id="10" xr3:uid="{1C9951B8-30A6-2642-8493-4FF09AD4DFF7}" name="Control 4m" dataDxfId="9"/>
@@ -1422,11 +2026,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004E8D39-F836-C14B-9B66-4FA9921C47F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78C894C-F4D8-2146-A5E9-3D454E7AF6BD}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="54">
+        <v>1</v>
+      </c>
+      <c r="C5" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="54">
+        <v>1</v>
+      </c>
+      <c r="C6" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="54">
+        <v>2</v>
+      </c>
+      <c r="C7" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="54">
+        <v>1</v>
+      </c>
+      <c r="C8" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="54">
+        <v>1</v>
+      </c>
+      <c r="C9" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="54">
+        <v>1</v>
+      </c>
+      <c r="C10" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="54">
+        <v>1</v>
+      </c>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="54">
+        <v>2</v>
+      </c>
+      <c r="C12" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="54">
+        <v>2</v>
+      </c>
+      <c r="C13" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="54">
+        <v>12</v>
+      </c>
+      <c r="C14" s="54">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1C8720-BEBF-7D49-9996-CB1A7CAFC779}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="117" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="117" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1435,7 +2207,7 @@
     <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1448,1236 +2220,1307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="57">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="40">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="12">
+        <v>43739</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="57">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="40">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="12">
+        <v>43777</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="58">
+        <v>12</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="40">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12">
+        <v>43717</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="58">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="40">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="12">
+        <v>43719</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="58">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="40">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="12">
+        <v>43962</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="59">
+        <v>12</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="26">
+        <v>43641</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="26">
+        <v>43770</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="58">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="12">
+        <v>43887</v>
+      </c>
+      <c r="K9" s="12">
+        <v>43950</v>
+      </c>
+      <c r="L9" s="29">
+        <v>44019</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="12">
+        <v>43979</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="58">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="42">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="12">
+        <v>43935</v>
+      </c>
+      <c r="L11" s="29">
+        <v>43998</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="58">
+        <v>12</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="40">
+        <v>3</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="12">
+        <v>43878</v>
+      </c>
+      <c r="K12" s="12">
+        <v>43938</v>
+      </c>
+      <c r="L12" s="29">
+        <v>44008</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="58">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="40">
+        <v>3</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="12">
+        <v>43880</v>
+      </c>
+      <c r="K13" s="29">
+        <v>43956</v>
+      </c>
+      <c r="L13" s="12">
+        <v>44011</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="58">
+        <v>6</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="40">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="I14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="12">
+        <v>44011</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="58">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="40">
+        <v>3</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="12">
+        <v>43997</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="58">
+        <v>9</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="12">
+        <v>43789</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="29">
+        <v>43991</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="58">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="12">
+        <v>43991</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="61">
+        <v>11</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="22">
+        <v>43836</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="61">
+        <v>8</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="22">
+        <v>43868</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="57">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="53">
+        <v>47328</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="D22" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="62">
+        <f>SUM(E2:E20)/17</f>
+        <v>10.352941176470589</v>
+      </c>
+      <c r="J22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="46">
-        <v>2</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="14">
-        <v>43739</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="46">
-        <v>3</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="14">
-        <v>43777</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="46">
-        <v>2</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="14">
-        <v>43717</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="46">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="14">
-        <v>43719</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="46">
-        <v>3</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="14">
-        <v>43962</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="12" t="s">
+      <c r="K22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="31">
-        <v>43641</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="31">
-        <v>43770</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="46">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="14">
-        <v>43887</v>
-      </c>
-      <c r="K9" s="14">
-        <v>43950</v>
-      </c>
-      <c r="L9" s="35">
-        <v>44019</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="16" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="14">
-        <v>43979</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="48">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="14">
-        <v>43935</v>
-      </c>
-      <c r="L11" s="35">
-        <v>43998</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="46">
-        <v>3</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="14">
-        <v>43878</v>
-      </c>
-      <c r="K12" s="14">
-        <v>43938</v>
-      </c>
-      <c r="L12" s="35">
-        <v>44008</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="46">
-        <v>3</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="14">
-        <v>43880</v>
-      </c>
-      <c r="K13" s="35">
-        <v>43956</v>
-      </c>
-      <c r="L13" s="14">
-        <v>44011</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="46">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="14">
-        <v>44011</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="46">
-        <v>3</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="14">
-        <v>43997</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="46">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="14">
-        <v>43789</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="35">
-        <v>43991</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="14">
-        <v>43991</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="26">
-        <v>43836</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="25"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="26">
-        <v>43868</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="25"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="61">
-        <v>47328</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="D22" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="D23" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="39">
+      <c r="B23" s="4"/>
+      <c r="D23" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*arcinoma*")</f>
         <v>12</v>
       </c>
+      <c r="F23">
+        <f>(SUM(E2:E17)+E20)/15</f>
+        <v>10.466666666666667</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="33">
+        <f>COUNTIF(Table1[Diagnosis],"*adenoma*")</f>
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D25" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="33">
+        <f>COUNTIF(Table1[Diagnosis],"*arcinosarcoma")</f>
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="39">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D26" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*steo*")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D25" s="38" t="s">
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D27" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="39">
-        <f>COUNTIF(Table1[Diagnosis],"*adenoma*")</f>
+      <c r="E27" s="33">
+        <f>COUNTIF(Table1[Diagnosis],"SCC")</f>
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D28" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="33">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D26" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="39">
-        <f>COUNTIF(Table1[Diagnosis],"*arcinosarcoma")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D27" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="39">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D29" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*pending*")+COUNTIF(Table1[Diagnosis],"?")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D28" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D29" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="39">
-        <f>COUNTIF(Table1[Diagnosis],"SCC")</f>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="48">
+        <f>SUM(E23:E29)</f>
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30">
         <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="54">
-        <f>SUM(E23:E29)</f>
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>109</v>
+      <c r="E32" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="39">
+      <c r="D33" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="33">
+        <f>COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"*adenoma*")</f>
+        <v>2</v>
+      </c>
+      <c r="F33" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="33">
+        <f>COUNTIF(Table1[Diagnosis],"*arcinosarcoma")</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="33">
         <f>COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"*arcinoma*")</f>
         <v>7</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F35" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="38" t="s">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="39">
-        <f>COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"*adenoma*")</f>
-        <v>2</v>
-      </c>
-      <c r="F34" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="39">
+      <c r="E36" s="33">
         <f>COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"SCC")</f>
         <v>1</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F36" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="39">
-        <f>COUNTIF(Table1[Diagnosis],"*arcinosarcoma")</f>
-        <v>1</v>
-      </c>
-      <c r="F36" s="58">
-        <v>0</v>
-      </c>
-    </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="39">
+      <c r="D37" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="33">
         <f>COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"*ending")+COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"?")</f>
         <v>1</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="54">
+      <c r="D38" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="48">
         <f>SUM(E33:E37)</f>
         <v>12</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="52">
         <f>SUM(F33:F37)</f>
         <v>8</v>
       </c>
@@ -2687,146 +3530,149 @@
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>108</v>
+      <c r="D40" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D41" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="39">
+      <c r="D41" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*arcinoma*")</f>
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D42" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="39">
+      <c r="D42" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*steo*")</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D43" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="39">
+      <c r="D43" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*arcinosarcoma")</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D44" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="39">
+      <c r="D44" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*adenoma*")</f>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D45" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="39">
+      <c r="D45" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*pending*")+COUNTIF(Table1[Diagnosis],"?")</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D46" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="39">
+      <c r="D46" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D47" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="39">
+      <c r="D47" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="33">
         <f>COUNTIF(Table1[Diagnosis],"SCC")</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="54">
+      <c r="D48" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="48">
         <f>SUM(E41:E47)</f>
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="45">
+      <c r="D50" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="39">
         <f>COUNTA(H:H)-1+3</f>
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D52" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="51" t="s">
+      <c r="D52" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D53" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="39">
+      <c r="D53" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="33">
         <f>COUNTIF(H:H,1)</f>
         <v>4</v>
       </c>
-      <c r="F53" s="39">
+      <c r="F53" s="33">
         <f>COUNTIFS(H:H,1,I:I,"Yes")</f>
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D54" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="39">
+      <c r="D54" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="33">
         <f>COUNTIF(H:H,2)</f>
         <v>3</v>
       </c>
-      <c r="F54" s="39">
+      <c r="F54" s="33">
         <f>COUNTIFS(H:H,2,I:I,"Yes")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="41">
+      <c r="D55" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="35">
         <f>COUNTIF(H:H,3)</f>
         <v>5</v>
       </c>
-      <c r="F55" s="41">
+      <c r="F55" s="35">
         <f>COUNTIFS(H:H,3,I:I,"Yes")</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="J23:K30">
+    <sortCondition ref="J23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">

--- a/Klinisk/Mammary tumor patients.xlsx
+++ b/Klinisk/Mammary tumor patients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jqc305/Documents/PhD/Klinisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B45ABA-9DAB-D749-9F89-3216DD9D4579}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E099564-2DF7-4244-9E14-48E225EBF40D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{05FC4E04-0877-594A-B04F-0D4C4ACDAED3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{05FC4E04-0877-594A-B04F-0D4C4ACDAED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -340,9 +340,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>High grade mammary carcinoma</t>
   </si>
   <si>
@@ -362,6 +359,15 @@
   </si>
   <si>
     <t>Mix</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>English springer spanel</t>
+  </si>
+  <si>
+    <t>Ductal carcinoma</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -770,9 +775,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -797,40 +799,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -951,6 +927,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1562,7 +1567,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A00FBA8B-A53D-E048-9448-BA9B8E2F1B11}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A00FBA8B-A53D-E048-9448-BA9B8E2F1B11}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -1683,8 +1688,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1F277A0-3373-C048-924F-4F2CCB7F4C12}" name="Table1" displayName="Table1" ref="A1:R20" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="A1:R20" xr:uid="{DDE13780-E7CD-FB43-96D6-111C364A8681}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1F277A0-3373-C048-924F-4F2CCB7F4C12}" name="Table1" displayName="Table1" ref="A1:R21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:R21" xr:uid="{DDE13780-E7CD-FB43-96D6-111C364A8681}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1703,28 +1708,28 @@
     <filterColumn colId="16" hiddenButton="1"/>
     <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
-  <sortState ref="A2:R20">
+  <sortState ref="A2:R21">
     <sortCondition ref="I6"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A75B1E21-FAD4-914B-813F-0ED0B81F146A}" name="Name" dataDxfId="17"/>
     <tableColumn id="17" xr3:uid="{C0924D36-3D9E-DC45-BE8D-E495FBBBDF7A}" name="Excluded" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{D3D4ECAC-2057-A341-AFA5-B7AF3CA5A4D7}" name="Sex" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{EE891BAE-7BF8-0045-AA88-D5945CCCCB32}" name="Breed" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A77266D9-1707-E541-BC6A-ABC62585C7A4}" name="Age" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{6C7329F9-428E-1349-85DF-CB8CB669EBD2}" name="Status" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{574B9625-6283-2B47-AF5C-1877C4E7A1C2}" name="Diagnosis" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{82D870F1-3125-5A4B-A144-91085725EEB0}" name="Grade" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{CCE63969-D1DE-FB4A-A19D-70A4E481191B}" name="cfDNA" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{5494D4E2-6AEB-D047-874B-EC72442262E7}" name="Tumor sample date" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{1CA53572-9980-9C4F-B01D-0FA879615C76}" name="Control 2m" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{1C9951B8-30A6-2642-8493-4FF09AD4DFF7}" name="Control 4m" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{5DCA443A-C720-D344-B04F-C7D72CF6F5A6}" name="Control 6m" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{4B2E531F-EE39-BB46-BBD1-3C35A94BF9E1}" name="Control 8m" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{BB5E0B31-5F26-7249-9F92-060A73AC0E5C}" name="Control 10m" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{4F7E46C0-EF3D-1B4F-ADC0-2E91D44E01CA}" name="Control 12m" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{891B615C-9140-754F-BAD4-A63A981D19F3}" name="Control 18m" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{F94D98F3-C1BC-A34A-B48D-48DA87E13D7D}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EE891BAE-7BF8-0045-AA88-D5945CCCCB32}" name="Breed" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A77266D9-1707-E541-BC6A-ABC62585C7A4}" name="Age" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{6C7329F9-428E-1349-85DF-CB8CB669EBD2}" name="Status" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{574B9625-6283-2B47-AF5C-1877C4E7A1C2}" name="Diagnosis" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{82D870F1-3125-5A4B-A144-91085725EEB0}" name="Grade" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{CCE63969-D1DE-FB4A-A19D-70A4E481191B}" name="cfDNA" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{5494D4E2-6AEB-D047-874B-EC72442262E7}" name="Tumor sample date" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{1CA53572-9980-9C4F-B01D-0FA879615C76}" name="Control 2m" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{1C9951B8-30A6-2642-8493-4FF09AD4DFF7}" name="Control 4m" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{5DCA443A-C720-D344-B04F-C7D72CF6F5A6}" name="Control 6m" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{4B2E531F-EE39-BB46-BBD1-3C35A94BF9E1}" name="Control 8m" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{BB5E0B31-5F26-7249-9F92-060A73AC0E5C}" name="Control 10m" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{4F7E46C0-EF3D-1B4F-ADC0-2E91D44E01CA}" name="Control 12m" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{891B615C-9140-754F-BAD4-A63A981D19F3}" name="Control 18m" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{F94D98F3-C1BC-A34A-B48D-48DA87E13D7D}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2054,15 +2059,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -2070,121 +2075,121 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="53">
+        <v>1</v>
+      </c>
+      <c r="C5" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="53">
+        <v>1</v>
+      </c>
+      <c r="C6" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="53">
+        <v>1</v>
+      </c>
+      <c r="C8" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="53">
+        <v>1</v>
+      </c>
+      <c r="C9" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="53">
+        <v>1</v>
+      </c>
+      <c r="C10" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="53">
+        <v>1</v>
+      </c>
+      <c r="C11" s="53"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="53">
+        <v>2</v>
+      </c>
+      <c r="C12" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="53">
+        <v>2</v>
+      </c>
+      <c r="C13" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="54">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="54">
-        <v>1</v>
-      </c>
-      <c r="C6" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="54">
-        <v>2</v>
-      </c>
-      <c r="C7" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="54">
-        <v>1</v>
-      </c>
-      <c r="C8" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="54">
-        <v>1</v>
-      </c>
-      <c r="C9" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="54">
-        <v>1</v>
-      </c>
-      <c r="C10" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="54">
-        <v>1</v>
-      </c>
-      <c r="C11" s="54"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="54">
-        <v>2</v>
-      </c>
-      <c r="C12" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="54">
-        <v>2</v>
-      </c>
-      <c r="C13" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <v>12</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="53">
         <v>11</v>
       </c>
     </row>
@@ -2195,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1C8720-BEBF-7D49-9996-CB1A7CAFC779}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="117" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2288,7 +2293,7 @@
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="56">
         <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -2342,7 +2347,7 @@
       <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="56">
         <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -2398,7 +2403,7 @@
       <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="57">
         <v>12</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -2452,7 +2457,7 @@
       <c r="D5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="57">
         <v>12</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -2508,14 +2513,14 @@
       <c r="D6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="57">
         <v>9</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="40">
         <v>3</v>
@@ -2564,7 +2569,7 @@
       <c r="D7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="58">
         <v>12</v>
       </c>
       <c r="F7" s="24" t="s">
@@ -2618,7 +2623,7 @@
       <c r="D8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="25" t="s">
         <v>18</v>
       </c>
@@ -2670,7 +2675,7 @@
       <c r="D9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="57">
         <v>10</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2694,8 +2699,8 @@
       <c r="L9" s="29">
         <v>44019</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>21</v>
+      <c r="M9" s="12">
+        <v>44082</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>21</v>
@@ -2724,7 +2729,7 @@
       <c r="D10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
@@ -2760,7 +2765,7 @@
       <c r="D11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="57">
         <v>10</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -2784,8 +2789,8 @@
       <c r="L11" s="29">
         <v>43998</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>21</v>
+      <c r="M11" s="12">
+        <v>44069</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>21</v>
@@ -2814,7 +2819,7 @@
       <c r="D12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="57">
         <v>12</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -2838,8 +2843,8 @@
       <c r="L12" s="29">
         <v>44008</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>21</v>
+      <c r="M12" s="12">
+        <v>44078</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>21</v>
@@ -2868,7 +2873,7 @@
       <c r="D13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="57">
         <v>6</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -2892,8 +2897,8 @@
       <c r="L13" s="12">
         <v>44011</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>21</v>
+      <c r="M13" s="12">
+        <v>44069</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>21</v>
@@ -2922,7 +2927,7 @@
       <c r="D14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="57">
         <v>6</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -2976,7 +2981,7 @@
       <c r="D15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="57">
         <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
@@ -3019,9 +3024,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>20</v>
@@ -3029,159 +3034,147 @@
       <c r="C16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="58">
-        <v>9</v>
+      <c r="D16" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="57">
+        <v>7</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="H16" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="12">
-        <v>43789</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="29">
-        <v>43991</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>44040</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="58">
-        <v>13</v>
+      <c r="D17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="57">
+        <v>9</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="43"/>
+        <v>28</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1</v>
+      </c>
       <c r="I17" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="12">
+        <v>43789</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="29">
         <v>43991</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="N17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="57">
+        <v>13</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="12">
+        <v>43991</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R18" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="61">
-        <v>11</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="22">
-        <v>43836</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>61</v>
@@ -3190,488 +3183,529 @@
         <v>16</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="61">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="60">
+        <v>11</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H19" s="44"/>
       <c r="I19" s="21" t="s">
         <v>41</v>
       </c>
       <c r="J19" s="22">
+        <v>43836</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="60">
+        <v>8</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="22">
         <v>43868</v>
       </c>
-      <c r="K19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="21"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="K20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="21"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E21" s="56">
         <v>13</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="11" t="s">
+      <c r="G21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="40">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J21" s="63">
         <v>47328</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="K21" s="29">
+        <v>44090</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="D22" s="36" t="s">
+      <c r="B23" s="3"/>
+      <c r="D23" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E23" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="62">
-        <f>SUM(E2:E20)/17</f>
-        <v>10.352941176470589</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="F23" s="61">
+        <f>SUM(E2:E21)/17</f>
+        <v>10.764705882352942</v>
+      </c>
+      <c r="J23" t="s">
         <v>2</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="D23" s="32" t="s">
+      <c r="B24" s="4"/>
+      <c r="D24" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E24" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*arcinoma*")</f>
-        <v>12</v>
-      </c>
-      <c r="F23">
-        <f>(SUM(E2:E17)+E20)/15</f>
-        <v>10.466666666666667</v>
-      </c>
-      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <f>(SUM(E2:E18)+E21)/15</f>
+        <v>10.933333333333334</v>
+      </c>
+      <c r="J24" t="s">
         <v>53</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D25" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E25" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*adenoma*")</f>
         <v>2</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>31</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D25" s="32" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D26" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E26" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*arcinosarcoma")</f>
         <v>1</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J26" t="s">
         <v>68</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D26" s="32" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D27" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E27" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*steo*")</f>
         <v>1</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J27" t="s">
         <v>73</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D27" s="32" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D28" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E28" s="33">
         <f>COUNTIF(Table1[Diagnosis],"SCC")</f>
         <v>1</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J28" t="s">
         <v>69</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D28" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="33">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D29" s="32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33">
-        <f>COUNTIF(Table1[Diagnosis],"*pending*")+COUNTIF(Table1[Diagnosis],"?")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="47" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D30" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="33">
+        <f>COUNTIF(Table1[Diagnosis],"*pending*")+COUNTIF(Table1[Diagnosis],"?")</f>
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="48">
-        <f>SUM(E23:E29)</f>
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>109</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="48">
+        <f>SUM(E24:E30)</f>
+        <v>22</v>
+      </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D32" s="36" t="s">
+    <row r="32" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D33" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E33" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="F33" s="49"/>
+      <c r="J33" t="s">
         <v>85</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="32" t="s">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D34" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E34" s="33">
         <f>COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"*adenoma*")</f>
         <v>2</v>
       </c>
-      <c r="F33" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="32" t="s">
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E35" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*arcinosarcoma")</f>
         <v>1</v>
       </c>
-      <c r="F34" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="32" t="s">
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D36" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E36" s="33">
         <f>COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"*arcinoma*")</f>
-        <v>7</v>
-      </c>
-      <c r="F35" s="50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D37" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E37" s="33">
         <f>COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"SCC")</f>
         <v>1</v>
       </c>
-      <c r="F36" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="32" t="s">
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D38" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E38" s="33">
         <f>COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"*ending")+COUNTIFS(Table1[cfDNA],"yes",Table1[Diagnosis],"?")</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="48">
-        <f>SUM(E33:E37)</f>
-        <v>12</v>
-      </c>
-      <c r="F38" s="52">
-        <f>SUM(F33:F37)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="37" t="s">
+      <c r="E39" s="48">
+        <f>SUM(E34:E38)</f>
+        <v>13</v>
+      </c>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D41" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E41" s="46" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D41" s="32" t="s">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D42" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E42" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*arcinoma*")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D42" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D43" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E43" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*steo*")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D43" s="32" t="s">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D44" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E44" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*arcinosarcoma")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D44" s="32" t="s">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D45" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E45" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*adenoma*")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D45" s="32" t="s">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D46" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E46" s="33">
         <f>COUNTIF(Table1[Diagnosis],"*pending*")+COUNTIF(Table1[Diagnosis],"?")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D46" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D47" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="33">
+      <c r="E47" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D47" s="32" t="s">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D48" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E48" s="33">
         <f>COUNTIF(Table1[Diagnosis],"SCC")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="47" t="s">
+    <row r="49" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="48">
-        <f>SUM(E41:E47)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="38" t="s">
+      <c r="E49" s="48">
+        <f>SUM(E42:E48)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E51" s="39">
         <f>COUNTA(H:H)-1+3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D52" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D53" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E53" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F53" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D53" s="32" t="s">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E54" s="33">
         <f>COUNTIF(H:H,1)</f>
         <v>4</v>
       </c>
-      <c r="F53" s="33">
+      <c r="F54" s="33">
         <f>COUNTIFS(H:H,1,I:I,"Yes")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D54" s="32" t="s">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E55" s="33">
         <f>COUNTIF(H:H,2)</f>
-        <v>3</v>
-      </c>
-      <c r="F54" s="33">
+        <v>5</v>
+      </c>
+      <c r="F55" s="33">
         <f>COUNTIFS(H:H,2,I:I,"Yes")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E56" s="35">
         <f>COUNTIF(H:H,3)</f>
         <v>5</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F56" s="35">
         <f>COUNTIFS(H:H,3,I:I,"Yes")</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="J23:K30">
-    <sortCondition ref="J23"/>
+  <sortState ref="J24:K31">
+    <sortCondition ref="J24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Klinisk/Mammary tumor patients.xlsx
+++ b/Klinisk/Mammary tumor patients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10918"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jqc305/Documents/PhD/Klinisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E099564-2DF7-4244-9E14-48E225EBF40D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E099564-2DF7-4244-9E14-48E225EBF40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{05FC4E04-0877-594A-B04F-0D4C4ACDAED3}"/>
   </bookViews>
@@ -17,13 +17,21 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="For Kerstin" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1708,7 +1716,7 @@
     <filterColumn colId="16" hiddenButton="1"/>
     <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
-  <sortState ref="A2:R21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R21">
     <sortCondition ref="I6"/>
   </sortState>
   <tableColumns count="18">
@@ -2036,7 +2044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2050,12 +2058,12 @@
       <selection activeCell="A4" sqref="A4:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.93359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.80859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2202,26 +2210,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1C8720-BEBF-7D49-9996-CB1A7CAFC779}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.2734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.93359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.2734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.0078125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1484375" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.8515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.34375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.9921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2556,7 +2564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>30</v>
       </c>
@@ -2752,7 +2760,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>63</v>
       </c>
@@ -2968,7 +2976,7 @@
       </c>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>66</v>
       </c>
@@ -3024,7 +3032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>109</v>
       </c>
@@ -3064,7 +3072,7 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>54</v>
       </c>
@@ -3318,11 +3326,11 @@
       <c r="Q21" s="29"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -3367,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -3459,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D31" s="47" t="s">
         <v>85</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="J32" t="s">
@@ -3549,7 +3557,7 @@
       </c>
       <c r="F38" s="51"/>
     </row>
-    <row r="39" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D39" s="47" t="s">
         <v>85</v>
       </c>
@@ -3559,7 +3567,7 @@
       </c>
       <c r="F39" s="52"/>
     </row>
-    <row r="40" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
@@ -3633,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D49" s="47" t="s">
         <v>85</v>
       </c>
@@ -3642,8 +3650,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D51" s="38" t="s">
         <v>91</v>
       </c>
@@ -3652,7 +3660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53" s="36" t="s">
         <v>98</v>
@@ -3690,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D56" s="34" t="s">
         <v>97</v>
       </c>
@@ -3704,7 +3712,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="J24:K31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J24:K31">
     <sortCondition ref="J24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Klinisk/Mammary tumor patients.xlsx
+++ b/Klinisk/Mammary tumor patients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10918"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jqc305/Documents/PhD/Klinisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E099564-2DF7-4244-9E14-48E225EBF40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464A6AD-2CBC-E640-8361-69B9CF64005C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{05FC4E04-0877-594A-B04F-0D4C4ACDAED3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{05FC4E04-0877-594A-B04F-0D4C4ACDAED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Count of Diagnosis</t>
-  </si>
-  <si>
     <t>(Multiple Items)</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>Ductal carcinoma</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1142,25 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Diagnosis" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="17">
+        <s v="Papillary carcinoma"/>
+        <s v="Solid carcinoma"/>
+        <s v="Complex carcinoma"/>
+        <s v="Simple carcinoma"/>
+        <s v="High grade mammary carcinoma"/>
+        <s v="Sarcoma/osteosarcoma"/>
+        <s v="None"/>
+        <s v="Complex adenocarcinomas"/>
+        <s v="SCC"/>
+        <s v="Complex carcinoma _x000a_Simple carcinoma"/>
+        <s v="Solid adenocarcinoma"/>
+        <s v="Carcinoma Grade 3"/>
+        <s v="Complex adenocarcinoma/solid adenocarcinoma/benign mixed"/>
+        <s v="Carcinosarcoma"/>
+        <s v="Mixed mammary tumor/Complex adenoma"/>
+        <s v="Complex adenoma"/>
+        <s v="?"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Grade" numFmtId="1">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
@@ -1198,7 +1216,7 @@
     <x v="0"/>
     <s v="10 y"/>
     <s v="Dead"/>
-    <s v="Papillary carcinoma"/>
+    <x v="0"/>
     <n v="2"/>
     <x v="0"/>
     <d v="2019-10-01T00:00:00"/>
@@ -1218,7 +1236,7 @@
     <x v="1"/>
     <s v="10 y"/>
     <s v="Dead"/>
-    <s v="Solid carcinoma"/>
+    <x v="1"/>
     <n v="3"/>
     <x v="0"/>
     <d v="2019-11-08T00:00:00"/>
@@ -1238,7 +1256,7 @@
     <x v="2"/>
     <s v="12 y"/>
     <s v="Alive"/>
-    <s v="Complex carcinoma"/>
+    <x v="2"/>
     <n v="2"/>
     <x v="0"/>
     <d v="2019-09-09T00:00:00"/>
@@ -1258,7 +1276,7 @@
     <x v="3"/>
     <s v="12 y"/>
     <s v="Alive"/>
-    <s v="Simple carcinoma"/>
+    <x v="3"/>
     <n v="2"/>
     <x v="0"/>
     <d v="2019-09-11T00:00:00"/>
@@ -1278,7 +1296,7 @@
     <x v="4"/>
     <s v="9 y"/>
     <s v="Alive"/>
-    <s v="High grade mammary carcinoma"/>
+    <x v="4"/>
     <n v="3"/>
     <x v="0"/>
     <d v="2020-05-11T00:00:00"/>
@@ -1298,7 +1316,7 @@
     <x v="5"/>
     <s v="12 y"/>
     <s v="Dead"/>
-    <s v="Sarcoma/osteosarcoma"/>
+    <x v="5"/>
     <m/>
     <x v="0"/>
     <d v="2019-06-25T00:00:00"/>
@@ -1318,7 +1336,7 @@
     <x v="5"/>
     <s v="12 y"/>
     <s v="Dead"/>
-    <s v="None"/>
+    <x v="6"/>
     <m/>
     <x v="0"/>
     <d v="2019-11-01T00:00:00"/>
@@ -1338,7 +1356,7 @@
     <x v="6"/>
     <s v="10 y"/>
     <s v="Alive"/>
-    <s v="Complex adenocarcinomas"/>
+    <x v="7"/>
     <n v="1"/>
     <x v="1"/>
     <d v="2020-02-26T00:00:00"/>
@@ -1358,7 +1376,7 @@
     <x v="7"/>
     <s v="?"/>
     <s v="Alive"/>
-    <s v="SCC"/>
+    <x v="8"/>
     <m/>
     <x v="1"/>
     <d v="2020-05-28T00:00:00"/>
@@ -1378,7 +1396,7 @@
     <x v="6"/>
     <s v="10 y"/>
     <s v="Alive"/>
-    <s v="Complex carcinoma _x000a_Simple carcinoma"/>
+    <x v="9"/>
     <n v="1"/>
     <x v="1"/>
     <s v="04/10/2020_x000a_07/02/2020"/>
@@ -1398,7 +1416,7 @@
     <x v="8"/>
     <s v="12 y"/>
     <s v="Alive"/>
-    <s v="Solid adenocarcinoma"/>
+    <x v="10"/>
     <n v="3"/>
     <x v="1"/>
     <d v="2020-02-17T00:00:00"/>
@@ -1418,7 +1436,7 @@
     <x v="9"/>
     <s v="6 y"/>
     <s v="Alive"/>
-    <s v="Simple carcinoma"/>
+    <x v="3"/>
     <n v="3"/>
     <x v="1"/>
     <d v="2020-02-19T00:00:00"/>
@@ -1438,7 +1456,7 @@
     <x v="5"/>
     <s v="6 y"/>
     <s v="Alive"/>
-    <s v="Complex carcinoma"/>
+    <x v="2"/>
     <n v="1"/>
     <x v="1"/>
     <d v="2020-06-29T00:00:00"/>
@@ -1458,7 +1476,7 @@
     <x v="10"/>
     <s v="13 y"/>
     <s v="Alive"/>
-    <s v="Carcinoma Grade 3"/>
+    <x v="11"/>
     <n v="3"/>
     <x v="1"/>
     <d v="2020-06-15T00:00:00"/>
@@ -1478,7 +1496,7 @@
     <x v="11"/>
     <s v="9 y"/>
     <s v="Alive"/>
-    <s v="Complex adenocarcinoma/solid adenocarcinoma/benign mixed"/>
+    <x v="12"/>
     <n v="1"/>
     <x v="1"/>
     <d v="2019-11-20T00:00:00"/>
@@ -1498,7 +1516,7 @@
     <x v="12"/>
     <s v="13 y"/>
     <s v="Dead"/>
-    <s v="Carcinosarcoma"/>
+    <x v="13"/>
     <m/>
     <x v="1"/>
     <d v="2020-06-09T00:00:00"/>
@@ -1518,7 +1536,7 @@
     <x v="5"/>
     <s v="11 y"/>
     <s v="Alive"/>
-    <s v="Mixed mammary tumor/Complex adenoma"/>
+    <x v="14"/>
     <m/>
     <x v="1"/>
     <d v="2020-01-06T00:00:00"/>
@@ -1538,7 +1556,7 @@
     <x v="8"/>
     <s v="8 y"/>
     <s v="Alive"/>
-    <s v="Complex adenoma"/>
+    <x v="15"/>
     <m/>
     <x v="1"/>
     <d v="2020-02-07T00:00:00"/>
@@ -1558,7 +1576,7 @@
     <x v="13"/>
     <m/>
     <s v="Alive"/>
-    <s v="?"/>
+    <x v="16"/>
     <m/>
     <x v="1"/>
     <d v="2029-07-29T00:00:00"/>
@@ -1575,8 +1593,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A00FBA8B-A53D-E048-9448-BA9B8E2F1B11}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A00FBA8B-A53D-E048-9448-BA9B8E2F1B11}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:K18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -1589,7 +1607,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="15">
         <item x="7"/>
         <item x="2"/>
@@ -1610,7 +1628,28 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="16"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
@@ -1630,9 +1669,53 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="3"/>
-  </rowFields>
-  <rowItems count="10">
+  </colFields>
+  <colItems count="10">
     <i>
       <x/>
     </i>
@@ -1663,24 +1746,12 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
     <pageField fld="8" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Diagnosis" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="1">
     <dataField name="Count of Age" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2044,7 +2115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2052,29 +2123,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78C894C-F4D8-2146-A5E9-3D454E7AF6BD}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.93359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.80859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
@@ -2082,122 +2159,303 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="53">
-        <v>1</v>
-      </c>
-      <c r="C5" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="53">
-        <v>1</v>
-      </c>
-      <c r="C6" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="53">
+        <v>88</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53">
+        <v>1</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53">
+        <v>1</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53">
+        <v>1</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53">
+        <v>1</v>
+      </c>
+      <c r="K10" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53">
+        <v>1</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53">
+        <v>1</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53">
+        <v>1</v>
+      </c>
+      <c r="K13" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53">
+        <v>1</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="53">
+        <v>1</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53">
+        <v>1</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53">
+        <v>1</v>
+      </c>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="53">
+        <v>1</v>
+      </c>
+      <c r="C18" s="53">
+        <v>1</v>
+      </c>
+      <c r="D18" s="53">
         <v>2</v>
       </c>
-      <c r="C7" s="53">
+      <c r="E18" s="53">
+        <v>1</v>
+      </c>
+      <c r="F18" s="53">
+        <v>1</v>
+      </c>
+      <c r="G18" s="53">
+        <v>1</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="53">
-        <v>1</v>
-      </c>
-      <c r="C8" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="53">
-        <v>1</v>
-      </c>
-      <c r="C9" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="53">
-        <v>1</v>
-      </c>
-      <c r="C10" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="53">
-        <v>1</v>
-      </c>
-      <c r="C11" s="53"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="53">
+      <c r="J18" s="53">
         <v>2</v>
       </c>
-      <c r="C12" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="53">
-        <v>2</v>
-      </c>
-      <c r="C13" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="53">
-        <v>12</v>
-      </c>
-      <c r="C14" s="53">
+      <c r="K18" s="53">
         <v>11</v>
       </c>
     </row>
@@ -2210,29 +2468,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1C8720-BEBF-7D49-9996-CB1A7CAFC779}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="117" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.2734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.93359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.2734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.0078125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1484375" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="13" width="10.8515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.34375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.9921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +2600,7 @@
       </c>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -2398,7 +2656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -2452,7 +2710,7 @@
       </c>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
@@ -2508,7 +2766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>70</v>
       </c>
@@ -2618,7 +2876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>34</v>
       </c>
@@ -2670,7 +2928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>45</v>
       </c>
@@ -2724,7 +2982,7 @@
       </c>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>80</v>
       </c>
@@ -2868,7 +3126,7 @@
       </c>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
@@ -2976,7 +3234,7 @@
       </c>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>66</v>
       </c>
@@ -3032,9 +3290,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>20</v>
@@ -3043,7 +3301,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="57">
         <v>7</v>
@@ -3052,7 +3310,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="40">
         <v>2</v>
@@ -3072,7 +3330,7 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>54</v>
       </c>
@@ -3126,7 +3384,7 @@
       </c>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
@@ -3180,7 +3438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
@@ -3284,7 +3542,7 @@
       </c>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
@@ -3352,7 +3610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>90</v>
       </c>
@@ -3393,7 +3651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="D26" s="32" t="s">
         <v>92</v>
       </c>
@@ -3408,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="D27" s="32" t="s">
         <v>75</v>
       </c>
@@ -3423,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="D28" s="32" t="s">
         <v>83</v>
       </c>
@@ -3452,7 +3710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="D30" s="32" t="s">
         <v>84</v>
       </c>
@@ -3476,7 +3734,7 @@
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3492,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D33" s="36" t="s">
         <v>5</v>
       </c>
@@ -3507,7 +3765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D34" s="32" t="s">
         <v>76</v>
       </c>
@@ -3517,7 +3775,7 @@
       </c>
       <c r="F34" s="62"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D35" s="32" t="s">
         <v>92</v>
       </c>
@@ -3527,7 +3785,7 @@
       </c>
       <c r="F35" s="50"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D36" s="32" t="s">
         <v>82</v>
       </c>
@@ -3537,7 +3795,7 @@
       </c>
       <c r="F36" s="50"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D37" s="32" t="s">
         <v>83</v>
       </c>
@@ -3547,7 +3805,7 @@
       </c>
       <c r="F37" s="50"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D38" s="32" t="s">
         <v>84</v>
       </c>
@@ -3571,7 +3829,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D41" s="37" t="s">
         <v>87</v>
       </c>
@@ -3579,7 +3837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:11" ht="15" x14ac:dyDescent="0.2">
       <c r="D42" s="32" t="s">
         <v>82</v>
       </c>
@@ -3641,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D49" s="47" t="s">
         <v>85</v>
       </c>
@@ -3650,8 +3908,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D51" s="38" t="s">
         <v>91</v>
       </c>
@@ -3660,7 +3918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53" s="36" t="s">
         <v>98</v>
@@ -3698,7 +3956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D56" s="34" t="s">
         <v>97</v>
       </c>
